--- a/Lab3Tingeso/Plan_estudios.xlsx
+++ b/Lab3Tingeso/Plan_estudios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alcid\OneDrive\Documents\2023-2\MTIngSW\Datos_Eval3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA35D51A-6BD3-4756-87E7-BFC4CA03AF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2278786B-19B5-4D21-88C7-B76A04044B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{3989353E-D0DE-4ACD-BCCB-486E87929471}"/>
   </bookViews>
